--- a/stage2_excels/PD/PD_kfold_one.xlsx
+++ b/stage2_excels/PD/PD_kfold_one.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="PD" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,69 +453,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2436445798277394</v>
+        <v>0.1828658104626769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1896878196332547</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>hsv_s_std_dev</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.08324238441090329</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>hsv_s_variance</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06692856653927395</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>hsv_s_variance</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05215799504563203</v>
+        <v>0.1099093299276125</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>